--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Hello</t>
+    <t>b</t>
   </si>
   <si>
     <t>I probably spent too much time on this</t>

--- a/test.xlsx
+++ b/test.xlsx
@@ -22,7 +22,7 @@
     <t>I probably spent too much time on this</t>
   </si>
   <si>
-    <t>&lt;-- Change This</t>
+    <t>&lt;-- change this</t>
   </si>
 </sst>
 </file>
